--- a/2022/Symphony/Others/Emergency Format/Re-Open Retail_ERMS.xlsx
+++ b/2022/Symphony/Others/Emergency Format/Re-Open Retail_ERMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sep'21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Emergency Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Dealer ID</t>
   </si>
@@ -45,35 +45,23 @@
     <t xml:space="preserve">Wants to do business with us </t>
   </si>
   <si>
-    <t>RET-09546</t>
+    <t>DEL-0179</t>
   </si>
   <si>
-    <t>Mayer Doya Mobile Centre</t>
+    <t xml:space="preserve">Mugdho Corporation </t>
   </si>
   <si>
-    <t>RET-37090</t>
+    <t>RET-30272</t>
   </si>
   <si>
-    <t>Rashidul Telecom</t>
-  </si>
-  <si>
-    <t>RET-09481</t>
-  </si>
-  <si>
-    <t>Ema Mobile Corner</t>
-  </si>
-  <si>
-    <t>M/S. MM Trade Link</t>
-  </si>
-  <si>
-    <t>DEL-0182</t>
+    <t>Ratna Traders &amp; Computers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +206,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -599,9 +594,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,6 +602,9 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -949,7 +944,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,90 +952,66 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
